--- a/TOR330 Data/4. TOR330 Timetable Data/TOR330_lifebase_cut_offs_df.xlsx
+++ b/TOR330 Data/4. TOR330 Timetable Data/TOR330_lifebase_cut_offs_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Lifebase</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Distance Difference (km)</t>
-  </si>
-  <si>
-    <t>D+ Difference (m)</t>
-  </si>
-  <si>
-    <t>Stage Duration</t>
-  </si>
-  <si>
-    <t>Stage Duration_in_seconds</t>
+    <t>Lifebase Distance (km)</t>
+  </si>
+  <si>
+    <t>Lifebase Accumulated Distance Elevation (m)</t>
+  </si>
+  <si>
+    <t>Lifebase Elevation Gain (m)</t>
+  </si>
+  <si>
+    <t>Lifebase Accumulated Elevation (m)</t>
+  </si>
+  <si>
+    <t>Lifebase Duration_seconds</t>
   </si>
   <si>
     <t>Valgrisenche IN</t>
@@ -73,43 +76,43 @@
     <t>FINISH</t>
   </si>
   <si>
-    <t>Stage 1</t>
-  </si>
-  <si>
-    <t>Time in Valgrisenche</t>
-  </si>
-  <si>
-    <t>Stage 2</t>
-  </si>
-  <si>
-    <t>Time in Cogne</t>
-  </si>
-  <si>
-    <t>Stage 3</t>
-  </si>
-  <si>
-    <t>Time in Donnas</t>
-  </si>
-  <si>
-    <t>Stage 4</t>
-  </si>
-  <si>
-    <t>Time in Gressoney</t>
-  </si>
-  <si>
-    <t>Stage 5</t>
-  </si>
-  <si>
-    <t>Time in Valtournenche</t>
-  </si>
-  <si>
-    <t>Stage 6</t>
-  </si>
-  <si>
-    <t>Time in Ollomont</t>
-  </si>
-  <si>
-    <t>Stage 7</t>
+    <t>Stage1 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Valgrisenche OUT</t>
+  </si>
+  <si>
+    <t>Stage2 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Cogne OUT</t>
+  </si>
+  <si>
+    <t>Stage3 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Donnas OUT</t>
+  </si>
+  <si>
+    <t>Stage4 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Gressoney OUT</t>
+  </si>
+  <si>
+    <t>Stage5 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Valtournenche OUT</t>
+  </si>
+  <si>
+    <t>Stage6 Time</t>
+  </si>
+  <si>
+    <t>Time Spent in Ollomont OUT</t>
+  </si>
+  <si>
+    <t>Stage7 Time</t>
   </si>
 </sst>
 </file>
@@ -168,12 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,264 +495,306 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>48.55</v>
       </c>
       <c r="D2">
+        <v>48.55</v>
+      </c>
+      <c r="E2">
         <v>4339</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.7916666666666666</v>
-      </c>
       <c r="F2">
+        <v>4339</v>
+      </c>
+      <c r="G2">
         <v>68400</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.08333333333333333</v>
+        <v>48.55</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>4339</v>
+      </c>
+      <c r="G3">
         <v>7200</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>55.45</v>
       </c>
       <c r="D4">
+        <v>104</v>
+      </c>
+      <c r="E4">
         <v>4943</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.875</v>
-      </c>
       <c r="F4">
+        <v>9282</v>
+      </c>
+      <c r="G4">
         <v>75600</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.08333333333333333</v>
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
+        <v>9282</v>
+      </c>
+      <c r="G5">
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>45.77000000000001</v>
       </c>
       <c r="D6">
+        <v>149.77</v>
+      </c>
+      <c r="E6">
         <v>2768</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.75</v>
-      </c>
       <c r="F6">
+        <v>12050</v>
+      </c>
+      <c r="G6">
         <v>64800.00000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.08333333333333333</v>
+        <v>149.77</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
+        <v>12050</v>
+      </c>
+      <c r="G7">
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>54.22999999999999</v>
       </c>
       <c r="D8">
+        <v>204</v>
+      </c>
+      <c r="E8">
         <v>5933</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.875</v>
-      </c>
       <c r="F8">
+        <v>17983</v>
+      </c>
+      <c r="G8">
         <v>75600</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.08333333333333333</v>
+        <v>204</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>17983</v>
+      </c>
+      <c r="G9">
         <v>7200</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>33.62</v>
       </c>
       <c r="D10">
+        <v>237.62</v>
+      </c>
+      <c r="E10">
         <v>3094</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.75</v>
-      </c>
       <c r="F10">
+        <v>21077</v>
+      </c>
+      <c r="G10">
         <v>64800.00000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.08333333333333333</v>
+        <v>237.62</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
+        <v>21077</v>
+      </c>
+      <c r="G11">
         <v>7200</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>48.04000000000002</v>
       </c>
       <c r="D12">
+        <v>285.66</v>
+      </c>
+      <c r="E12">
         <v>4625</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.8333333333333334</v>
-      </c>
       <c r="F12">
+        <v>25702</v>
+      </c>
+      <c r="G12">
         <v>72000</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.08333333333333333</v>
+        <v>285.66</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>25702</v>
+      </c>
+      <c r="G13">
         <v>7200</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>49.65999999999997</v>
       </c>
       <c r="D14">
+        <v>335.32</v>
+      </c>
+      <c r="E14">
         <v>3906</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.875</v>
-      </c>
       <c r="F14">
+        <v>29608</v>
+      </c>
+      <c r="G14">
         <v>75600</v>
       </c>
     </row>

--- a/TOR330 Data/4. TOR330 Timetable Data/TOR330_lifebase_cut_offs_df.xlsx
+++ b/TOR330 Data/4. TOR330 Timetable Data/TOR330_lifebase_cut_offs_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Lifebase</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Lifebase Duration_seconds</t>
   </si>
   <si>
+    <t>Running Total Lifebase Duration_seconds</t>
+  </si>
+  <si>
     <t>Valgrisenche IN</t>
   </si>
   <si>
@@ -76,43 +79,43 @@
     <t>FINISH</t>
   </si>
   <si>
-    <t>Stage1 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Valgrisenche OUT</t>
-  </si>
-  <si>
-    <t>Stage2 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Cogne OUT</t>
-  </si>
-  <si>
-    <t>Stage3 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Donnas OUT</t>
-  </si>
-  <si>
-    <t>Stage4 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Gressoney OUT</t>
-  </si>
-  <si>
-    <t>Stage5 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Valtournenche OUT</t>
-  </si>
-  <si>
-    <t>Stage6 Time</t>
-  </si>
-  <si>
-    <t>Time Spent in Ollomont OUT</t>
-  </si>
-  <si>
-    <t>Stage7 Time</t>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Time Spent in Valgrisenche</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Time Spent in Cogne</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Time Spent in Donnas</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Time Spent in Gressoney</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Time Spent in Valtournenche</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Time Spent in Ollomont</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
   </si>
 </sst>
 </file>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,13 +501,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>48.55</v>
@@ -521,13 +527,16 @@
       <c r="G2">
         <v>68400</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -544,13 +553,16 @@
       <c r="G3">
         <v>7200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>55.45</v>
@@ -567,13 +579,16 @@
       <c r="G4">
         <v>75600</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>151200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -590,13 +605,16 @@
       <c r="G5">
         <v>7200</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>45.77000000000001</v>
@@ -613,13 +631,16 @@
       <c r="G6">
         <v>64800.00000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>223200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -636,13 +657,16 @@
       <c r="G7">
         <v>7200</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>230400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>54.22999999999999</v>
@@ -659,13 +683,16 @@
       <c r="G8">
         <v>75600</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>306000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -682,13 +709,16 @@
       <c r="G9">
         <v>7200</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>313200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>33.62</v>
@@ -705,13 +735,16 @@
       <c r="G10">
         <v>64800.00000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -728,13 +761,16 @@
       <c r="G11">
         <v>7200</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>385200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>48.04000000000002</v>
@@ -751,13 +787,16 @@
       <c r="G12">
         <v>72000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>457200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -774,13 +813,16 @@
       <c r="G13">
         <v>7200</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>464400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>49.65999999999997</v>
@@ -796,6 +838,9 @@
       </c>
       <c r="G14">
         <v>75600</v>
+      </c>
+      <c r="H14">
+        <v>540000</v>
       </c>
     </row>
   </sheetData>
